--- a/ビジネスモデルパターン.xlsx
+++ b/ビジネスモデルパターン.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10001210862\Documents\TopSE\ソフトウェア開発実践演習\git\team\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9700099\Documents\GitHub\team\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16272" windowHeight="8496"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16275" windowHeight="8490"/>
   </bookViews>
   <sheets>
     <sheet name="55モデル" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="88">
   <si>
     <t>アドオン</t>
     <phoneticPr fontId="1"/>
@@ -757,7 +757,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -792,7 +792,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -980,26 +980,26 @@
   <dimension ref="A1:P57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.19921875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.25" style="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="2.59765625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.8984375" customWidth="1"/>
-    <col min="9" max="10" width="10.19921875" customWidth="1"/>
+    <col min="7" max="7" width="2.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.875" customWidth="1"/>
+    <col min="9" max="10" width="10.25" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="12.09765625" customWidth="1"/>
-    <col min="13" max="14" width="10.19921875" customWidth="1"/>
-    <col min="15" max="16" width="12.09765625" customWidth="1"/>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
+    <col min="13" max="14" width="10.25" customWidth="1"/>
+    <col min="15" max="16" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>86</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1098,16 +1098,20 @@
         <v>4</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1124,13 +1128,23 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="L4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1144,16 +1158,20 @@
         <v>4</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1167,16 +1185,24 @@
         <v>4</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="N6" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1207,7 +1233,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1234,7 +1260,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1268,7 +1294,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1299,7 +1325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1328,7 +1354,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1357,7 +1383,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1380,7 +1406,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1416,7 +1442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1450,7 +1476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1486,7 +1512,7 @@
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1515,7 +1541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1554,7 +1580,7 @@
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1592,7 +1618,7 @@
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1625,7 +1651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1663,7 +1689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1699,7 +1725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1728,7 +1754,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1751,7 +1777,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1774,7 +1800,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1797,7 +1823,7 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1820,7 +1846,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1846,7 +1872,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1869,7 +1895,7 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1895,7 +1921,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1921,7 +1947,7 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1947,7 +1973,7 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1976,7 +2002,7 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1999,7 +2025,7 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2019,13 +2045,19 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+      <c r="L35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P35" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2043,12 +2075,20 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="M36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2062,16 +2102,20 @@
         <v>4</v>
       </c>
       <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="I37" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
+      <c r="L37" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2098,7 +2142,7 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2132,7 +2176,7 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2168,7 +2212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2198,7 +2242,7 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2225,7 +2269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2256,7 +2300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2290,7 +2334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2321,7 +2365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2357,7 +2401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2391,7 +2435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2425,7 +2469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2461,7 +2505,7 @@
       </c>
       <c r="P49" s="1"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2484,7 +2528,7 @@
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2510,7 +2554,7 @@
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2539,7 +2583,7 @@
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2565,7 +2609,7 @@
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2594,7 +2638,7 @@
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2623,7 +2667,7 @@
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2652,7 +2696,7 @@
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>55</v>
       </c>

--- a/ビジネスモデルパターン.xlsx
+++ b/ビジネスモデルパターン.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9700099\Documents\GitHub\team\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\masuo\git\team\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="88">
   <si>
     <t>アドオン</t>
     <phoneticPr fontId="1"/>
@@ -553,7 +553,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -979,12 +979,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P35" sqref="P35"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
@@ -999,7 +999,7 @@
     <col min="15" max="16" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.7">
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.7">
       <c r="B2" t="s">
         <v>86</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1111,7 +1111,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1260,7 +1260,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1294,7 +1294,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1354,7 +1354,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1383,7 +1383,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1406,7 +1406,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1745,16 +1745,22 @@
         <v>4</v>
       </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="I23" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
+      <c r="L23" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
+      <c r="O23" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1767,17 +1773,27 @@
       <c r="E24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
+      <c r="N24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1790,17 +1806,29 @@
       <c r="E25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1813,17 +1841,25 @@
       <c r="D26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
+      <c r="O26" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1846,7 +1882,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1872,7 +1908,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1895,7 +1931,7 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1921,7 +1957,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1947,7 +1983,7 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1973,7 +2009,7 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2002,7 +2038,7 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2025,7 +2061,7 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2057,7 +2093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2088,7 +2124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2115,7 +2151,7 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2142,7 +2178,7 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2176,7 +2212,7 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2212,7 +2248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2242,7 +2278,7 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2269,7 +2305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2300,7 +2336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2334,7 +2370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2365,7 +2401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2401,7 +2437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2435,7 +2471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2469,7 +2505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2505,7 +2541,7 @@
       </c>
       <c r="P49" s="1"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2519,16 +2555,20 @@
         <v>4</v>
       </c>
       <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
+      <c r="I50" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
+      <c r="L50" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2544,17 +2584,27 @@
       <c r="E51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
+      <c r="H51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
+      <c r="M51" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="O51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2573,17 +2623,25 @@
       <c r="F52" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
+      <c r="H52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
+      <c r="N52" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="P52" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2609,7 +2667,7 @@
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2638,7 +2696,7 @@
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2667,7 +2725,7 @@
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2696,7 +2754,7 @@
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.7">
       <c r="A57">
         <v>55</v>
       </c>

--- a/ビジネスモデルパターン.xlsx
+++ b/ビジネスモデルパターン.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\masuo\git\team\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\99_work\99_topse\repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="88">
   <si>
     <t>アドオン</t>
     <phoneticPr fontId="1"/>
@@ -979,12 +979,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K52" sqref="K52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
@@ -999,7 +999,7 @@
     <col min="15" max="16" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>86</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1111,7 +1111,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1260,7 +1260,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1294,7 +1294,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1352,9 +1352,11 @@
         <v>4</v>
       </c>
       <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.7">
+      <c r="P11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1383,7 +1385,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1397,7 +1399,9 @@
         <v>4</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1406,7 +1410,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1423,14 +1427,18 @@
         <v>4</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="J14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="1"/>
+      <c r="L14" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="M14" s="1" t="s">
         <v>4</v>
       </c>
@@ -1442,7 +1450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1476,7 +1484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1512,7 +1520,7 @@
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1541,7 +1549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1580,7 +1588,7 @@
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1618,7 +1626,7 @@
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1651,7 +1659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1689,7 +1697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1725,7 +1733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1760,7 +1768,7 @@
       </c>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1793,7 +1801,7 @@
       </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1828,7 +1836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1859,7 +1867,7 @@
       </c>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1882,7 +1890,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1908,7 +1916,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1931,7 +1939,7 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1957,7 +1965,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1983,7 +1991,7 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2009,7 +2017,7 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2038,7 +2046,7 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2061,7 +2069,7 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2093,7 +2101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2124,7 +2132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2151,7 +2159,7 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2178,7 +2186,7 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2212,7 +2220,7 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2248,7 +2256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2265,7 +2273,9 @@
         <v>4</v>
       </c>
       <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="I41" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2278,7 +2288,7 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2297,7 +2307,9 @@
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
+      <c r="L42" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -2305,7 +2317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2319,7 +2331,9 @@
         <v>4</v>
       </c>
       <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+      <c r="I43" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1" t="s">
@@ -2336,7 +2350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2370,7 +2384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2401,7 +2415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2437,7 +2451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2471,7 +2485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2505,7 +2519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2541,7 +2555,7 @@
       </c>
       <c r="P49" s="1"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2568,7 +2582,7 @@
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2604,7 +2618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2641,7 +2655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2667,7 +2681,7 @@
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2696,7 +2710,7 @@
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2725,7 +2739,7 @@
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2754,7 +2768,7 @@
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>55</v>
       </c>
